--- a/4.PRIMA/prima.xlsx
+++ b/4.PRIMA/prima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e7a1041b057cdfd/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e7a1041b057cdfd/Escritorio/dTA PROJET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{43465F7E-C558-4205-9FAC-43EEB1E132CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCFF7BD8-0431-45F2-B6EF-BEE892AA1DC4}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{43465F7E-C558-4205-9FAC-43EEB1E132CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F51F90D-81D0-4DEC-9C1D-B48D103606D7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="690" yWindow="690" windowWidth="7500" windowHeight="6000" activeTab="2" xr2:uid="{A73809C5-E42B-49D2-8C33-71F82B3DE245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{A73809C5-E42B-49D2-8C33-71F82B3DE245}"/>
   </bookViews>
   <sheets>
     <sheet name="CÁLCULO PRIMA" sheetId="4" r:id="rId1"/>
@@ -878,6 +878,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,6 +951,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,6 +978,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,28 +1011,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1429,10 +1429,10 @@
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="49"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="18" t="s">
@@ -1444,8 +1444,8 @@
       <c r="F12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="18" t="s">
@@ -1457,8 +1457,8 @@
       <c r="F13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="18" t="s">
@@ -1594,13 +1594,13 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -1646,33 +1646,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CAE69E-B48F-41DB-B98F-9DCC61AAC628}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="G4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="G4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
@@ -1707,12 +1707,12 @@
       <c r="H6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
@@ -1738,10 +1738,10 @@
       <c r="H7" s="20">
         <v>2.9096000000000002</v>
       </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
@@ -1767,10 +1767,10 @@
       <c r="H8" s="20">
         <v>0.2094</v>
       </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
@@ -1796,10 +1796,10 @@
       <c r="H9" s="20">
         <v>0.1749</v>
       </c>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="65"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
@@ -1825,10 +1825,10 @@
       <c r="H10" s="20">
         <v>0.14380000000000001</v>
       </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="64"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
@@ -1854,10 +1854,10 @@
       <c r="H11" s="20">
         <v>0.1182</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="65"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -1883,10 +1883,10 @@
       <c r="H12" s="20">
         <v>0.1002</v>
       </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
@@ -1912,10 +1912,10 @@
       <c r="H13" s="20">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
@@ -1941,10 +1941,10 @@
       <c r="H14" s="20">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
@@ -1970,10 +1970,10 @@
       <c r="H15" s="20">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="64"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
@@ -1999,10 +1999,10 @@
       <c r="H16" s="20">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
@@ -2028,12 +2028,12 @@
       <c r="H17" s="20">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
@@ -2059,10 +2059,10 @@
       <c r="H18" s="20">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="64"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="65"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
@@ -2088,10 +2088,10 @@
       <c r="H19" s="20">
         <v>0.11749999999999999</v>
       </c>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="67"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
@@ -2117,12 +2117,12 @@
       <c r="H20" s="20">
         <v>0.14829999999999999</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
@@ -2148,10 +2148,10 @@
       <c r="H21" s="20">
         <v>0.19040000000000001</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
@@ -2177,10 +2177,10 @@
       <c r="H22" s="20">
         <v>0.24329999999999999</v>
       </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
@@ -4554,8 +4554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29E4A6E-6861-416C-BBA9-19990A588859}">
   <dimension ref="C1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,7 +4571,7 @@
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="72" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4580,43 +4580,43 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="86"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="72" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4632,7 +4632,7 @@
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
-      <c r="D6" s="86"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4647,16 +4647,16 @@
     <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="73" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -4672,7 +4672,7 @@
     </row>
     <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
-      <c r="D9" s="88"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="75" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -4709,7 +4709,7 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="85"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="80" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -4733,11 +4733,11 @@
         <v>41</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="89"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="13" t="s">
         <v>42</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>43</v>
       </c>
       <c r="G15" s="1">
-        <v>-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
@@ -4763,7 +4763,7 @@
       <c r="K17" s="22"/>
     </row>
     <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="73" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
@@ -4780,7 +4780,7 @@
       <c r="K18" s="22"/>
     </row>
     <row r="19" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="88"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="29" t="s">
         <v>13</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="23">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="K19" s="10"/>
     </row>
@@ -4831,21 +4831,21 @@
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="35" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="46">
         <v>0.5</v>
       </c>
       <c r="K24" s="8"/>
@@ -4853,12 +4853,12 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="88"/>
-      <c r="E25" s="46" t="s">
+      <c r="D25" s="74"/>
+      <c r="E25" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="31" t="s">
         <v>44</v>
       </c>
@@ -4873,10 +4873,10 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="34" t="s">
         <v>45</v>
       </c>
@@ -4892,14 +4892,14 @@
     </row>
     <row r="27" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
-      <c r="E27" s="83"/>
+      <c r="E27" s="71"/>
       <c r="H27" s="35" t="s">
         <v>46</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="46">
         <v>0.5</v>
       </c>
       <c r="K27" s="8"/>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
-      <c r="E28" s="83"/>
+      <c r="E28" s="71"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -4995,12 +4995,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D26:G26"/>
@@ -5008,6 +5002,12 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
